--- a/Financials/Quarterly/AUO_QTR_FIN.xlsx
+++ b/Financials/Quarterly/AUO_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606FE2BE-B716-4B95-935D-3DD85BAEB006}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AUO" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,153 +686,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2447500</v>
+        <v>2498600</v>
       </c>
       <c r="E8" s="3">
-        <v>2427600</v>
+        <v>2626600</v>
       </c>
       <c r="F8" s="3">
-        <v>2630400</v>
+        <v>2432500</v>
       </c>
       <c r="G8" s="3">
-        <v>2850000</v>
+        <v>2412700</v>
       </c>
       <c r="H8" s="3">
-        <v>2752700</v>
+        <v>2614300</v>
       </c>
       <c r="I8" s="3">
+        <v>2832500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2735800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2887800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2995100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2805000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2210300</v>
+        <v>2366200</v>
       </c>
       <c r="E9" s="3">
-        <v>2162200</v>
+        <v>2346500</v>
       </c>
       <c r="F9" s="3">
-        <v>2266000</v>
+        <v>2196800</v>
       </c>
       <c r="G9" s="3">
-        <v>2350600</v>
+        <v>2148900</v>
       </c>
       <c r="H9" s="3">
-        <v>2194400</v>
+        <v>2252100</v>
       </c>
       <c r="I9" s="3">
+        <v>2336200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2180900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2319400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2433200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2436300</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>237200</v>
+        <v>132400</v>
       </c>
       <c r="E10" s="3">
-        <v>265500</v>
+        <v>280100</v>
       </c>
       <c r="F10" s="3">
-        <v>364400</v>
+        <v>235700</v>
       </c>
       <c r="G10" s="3">
-        <v>499300</v>
+        <v>263900</v>
       </c>
       <c r="H10" s="3">
-        <v>558300</v>
+        <v>362200</v>
       </c>
       <c r="I10" s="3">
+        <v>496300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>554900</v>
+      </c>
+      <c r="K10" s="3">
         <v>568500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>561800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>368800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,37 +869,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>72400</v>
+        <v>82300</v>
       </c>
       <c r="E12" s="3">
-        <v>75100</v>
+        <v>80500</v>
       </c>
       <c r="F12" s="3">
-        <v>80600</v>
+        <v>71900</v>
       </c>
       <c r="G12" s="3">
+        <v>74700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>80100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>79800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>79100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>80900</v>
+      </c>
+      <c r="L12" s="3">
         <v>80300</v>
       </c>
-      <c r="H12" s="3">
-        <v>79600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>80900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>80300</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>72600</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,37 +935,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F14" s="3">
         <v>8100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>31700</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>31500</v>
+      </c>
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>20800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -925,8 +1005,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,66 +1021,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2387200</v>
+        <v>2561000</v>
       </c>
       <c r="E17" s="3">
-        <v>2331300</v>
+        <v>2533000</v>
       </c>
       <c r="F17" s="3">
-        <v>2476200</v>
+        <v>2372500</v>
       </c>
       <c r="G17" s="3">
-        <v>2532900</v>
+        <v>2317000</v>
       </c>
       <c r="H17" s="3">
-        <v>2372000</v>
+        <v>2461000</v>
       </c>
       <c r="I17" s="3">
+        <v>2517300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2357500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2516800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2621800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2619500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>60300</v>
+        <v>-62400</v>
       </c>
       <c r="E18" s="3">
-        <v>96300</v>
+        <v>93600</v>
       </c>
       <c r="F18" s="3">
-        <v>154300</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="3">
-        <v>317100</v>
+        <v>95700</v>
       </c>
       <c r="H18" s="3">
-        <v>380700</v>
+        <v>153300</v>
       </c>
       <c r="I18" s="3">
+        <v>315200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>378300</v>
+      </c>
+      <c r="K18" s="3">
         <v>371100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>373300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>185500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,153 +1106,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>33400</v>
+        <v>73500</v>
       </c>
       <c r="E20" s="3">
-        <v>60800</v>
+        <v>95800</v>
       </c>
       <c r="F20" s="3">
-        <v>41800</v>
+        <v>33200</v>
       </c>
       <c r="G20" s="3">
-        <v>47700</v>
+        <v>60400</v>
       </c>
       <c r="H20" s="3">
-        <v>22300</v>
+        <v>41500</v>
       </c>
       <c r="I20" s="3">
+        <v>47400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K20" s="3">
         <v>42200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>24600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>356700</v>
+        <v>301600</v>
       </c>
       <c r="E21" s="3">
-        <v>433000</v>
+        <v>472700</v>
       </c>
       <c r="F21" s="3">
-        <v>479800</v>
+        <v>354500</v>
       </c>
       <c r="G21" s="3">
-        <v>649000</v>
+        <v>430300</v>
       </c>
       <c r="H21" s="3">
-        <v>696600</v>
+        <v>476900</v>
       </c>
       <c r="I21" s="3">
+        <v>645000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>692400</v>
+      </c>
+      <c r="K21" s="3">
         <v>739700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>733000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>513900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>20600</v>
+        <v>22500</v>
       </c>
       <c r="E22" s="3">
-        <v>21900</v>
+        <v>21600</v>
       </c>
       <c r="F22" s="3">
-        <v>24500</v>
+        <v>20400</v>
       </c>
       <c r="G22" s="3">
-        <v>22200</v>
+        <v>21800</v>
       </c>
       <c r="H22" s="3">
-        <v>23200</v>
+        <v>24300</v>
       </c>
       <c r="I22" s="3">
+        <v>22100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K22" s="3">
         <v>23600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>29700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>22800</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>73200</v>
+        <v>-11300</v>
       </c>
       <c r="E23" s="3">
-        <v>135100</v>
+        <v>167800</v>
       </c>
       <c r="F23" s="3">
-        <v>171600</v>
+        <v>72700</v>
       </c>
       <c r="G23" s="3">
-        <v>342600</v>
+        <v>134300</v>
       </c>
       <c r="H23" s="3">
-        <v>379700</v>
+        <v>170600</v>
       </c>
       <c r="I23" s="3">
+        <v>340500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>377400</v>
+      </c>
+      <c r="K23" s="3">
         <v>389700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>368200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>176700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>71900</v>
+        <v>2500</v>
       </c>
       <c r="E24" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F24" s="3">
+        <v>71500</v>
+      </c>
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
-        <v>52500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>74400</v>
-      </c>
       <c r="H24" s="3">
-        <v>88000</v>
+        <v>52200</v>
       </c>
       <c r="I24" s="3">
+        <v>74000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>87400</v>
+      </c>
+      <c r="K24" s="3">
         <v>82000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>95100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>26200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,66 +1312,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>140000</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
-        <v>131300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>119100</v>
-      </c>
       <c r="G26" s="3">
-        <v>268200</v>
+        <v>130500</v>
       </c>
       <c r="H26" s="3">
-        <v>291700</v>
+        <v>118400</v>
       </c>
       <c r="I26" s="3">
+        <v>266500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>290000</v>
+      </c>
+      <c r="K26" s="3">
         <v>307700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>273100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>150500</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>40800</v>
+        <v>9100</v>
       </c>
       <c r="E27" s="3">
-        <v>140500</v>
+        <v>140000</v>
       </c>
       <c r="F27" s="3">
-        <v>136800</v>
+        <v>40600</v>
       </c>
       <c r="G27" s="3">
-        <v>288800</v>
+        <v>139700</v>
       </c>
       <c r="H27" s="3">
-        <v>320500</v>
+        <v>135900</v>
       </c>
       <c r="I27" s="3">
+        <v>287000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>318600</v>
+      </c>
+      <c r="K27" s="3">
         <v>309100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>292500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>159700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1267,8 +1417,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1296,8 +1452,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1325,8 +1487,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1354,66 +1522,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-33400</v>
+        <v>-73500</v>
       </c>
       <c r="E32" s="3">
-        <v>-60800</v>
+        <v>-95800</v>
       </c>
       <c r="F32" s="3">
-        <v>-41800</v>
+        <v>-33200</v>
       </c>
       <c r="G32" s="3">
-        <v>-47700</v>
+        <v>-60400</v>
       </c>
       <c r="H32" s="3">
-        <v>-22300</v>
+        <v>-41500</v>
       </c>
       <c r="I32" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-42200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-24600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-14000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>40800</v>
+        <v>9100</v>
       </c>
       <c r="E33" s="3">
-        <v>140500</v>
+        <v>140000</v>
       </c>
       <c r="F33" s="3">
-        <v>136800</v>
+        <v>40600</v>
       </c>
       <c r="G33" s="3">
-        <v>288800</v>
+        <v>139700</v>
       </c>
       <c r="H33" s="3">
-        <v>320500</v>
+        <v>135900</v>
       </c>
       <c r="I33" s="3">
+        <v>287000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>318600</v>
+      </c>
+      <c r="K33" s="3">
         <v>309100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>292500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>159700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1441,71 +1627,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>40800</v>
+        <v>9100</v>
       </c>
       <c r="E35" s="3">
-        <v>140500</v>
+        <v>140000</v>
       </c>
       <c r="F35" s="3">
-        <v>136800</v>
+        <v>40600</v>
       </c>
       <c r="G35" s="3">
-        <v>288800</v>
+        <v>139700</v>
       </c>
       <c r="H35" s="3">
-        <v>320500</v>
+        <v>135900</v>
       </c>
       <c r="I35" s="3">
+        <v>287000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>318600</v>
+      </c>
+      <c r="K35" s="3">
         <v>309100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>292500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>159700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1517,8 +1721,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1530,269 +1736,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2684600</v>
+        <v>2241600</v>
       </c>
       <c r="E41" s="3">
-        <v>3167200</v>
+        <v>2043800</v>
       </c>
       <c r="F41" s="3">
-        <v>3424700</v>
+        <v>2668100</v>
       </c>
       <c r="G41" s="3">
-        <v>3510700</v>
+        <v>3147800</v>
       </c>
       <c r="H41" s="3">
-        <v>3352300</v>
+        <v>3403700</v>
       </c>
       <c r="I41" s="3">
+        <v>3489100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3331800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2787600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2615000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2414900</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>52100</v>
+        <v>100400</v>
       </c>
       <c r="E42" s="3">
-        <v>28600</v>
+        <v>110100</v>
       </c>
       <c r="F42" s="3">
-        <v>16900</v>
+        <v>51800</v>
       </c>
       <c r="G42" s="3">
-        <v>16700</v>
+        <v>28400</v>
       </c>
       <c r="H42" s="3">
-        <v>14700</v>
+        <v>16800</v>
       </c>
       <c r="I42" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K42" s="3">
         <v>13800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>18300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>27400</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>1448800</v>
+        <v>1539000</v>
       </c>
       <c r="E43" s="3">
-        <v>1311200</v>
+        <v>1611900</v>
       </c>
       <c r="F43" s="3">
-        <v>1326300</v>
+        <v>1439900</v>
       </c>
       <c r="G43" s="3">
-        <v>1580100</v>
+        <v>1303200</v>
       </c>
       <c r="H43" s="3">
-        <v>1464900</v>
+        <v>1318200</v>
       </c>
       <c r="I43" s="3">
+        <v>1570500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1455900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1546700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1574800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1413700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>853200</v>
+        <v>852700</v>
       </c>
       <c r="E44" s="3">
-        <v>808500</v>
+        <v>882700</v>
       </c>
       <c r="F44" s="3">
-        <v>810500</v>
+        <v>848000</v>
       </c>
       <c r="G44" s="3">
-        <v>815900</v>
+        <v>803500</v>
       </c>
       <c r="H44" s="3">
-        <v>832900</v>
+        <v>805500</v>
       </c>
       <c r="I44" s="3">
+        <v>810900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>827700</v>
+      </c>
+      <c r="K44" s="3">
         <v>836300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>902600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>880900</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>209900</v>
+        <v>97600</v>
       </c>
       <c r="E45" s="3">
-        <v>267500</v>
+        <v>137700</v>
       </c>
       <c r="F45" s="3">
-        <v>297100</v>
+        <v>208600</v>
       </c>
       <c r="G45" s="3">
-        <v>237100</v>
+        <v>265800</v>
       </c>
       <c r="H45" s="3">
-        <v>243200</v>
+        <v>295200</v>
       </c>
       <c r="I45" s="3">
+        <v>235700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>241700</v>
+      </c>
+      <c r="K45" s="3">
         <v>221400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>216000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>217800</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>5248600</v>
+        <v>4831300</v>
       </c>
       <c r="E46" s="3">
-        <v>5582900</v>
+        <v>4786200</v>
       </c>
       <c r="F46" s="3">
-        <v>5875500</v>
+        <v>5216400</v>
       </c>
       <c r="G46" s="3">
-        <v>6160600</v>
+        <v>5548700</v>
       </c>
       <c r="H46" s="3">
-        <v>5908000</v>
+        <v>5839500</v>
       </c>
       <c r="I46" s="3">
+        <v>6122800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5871700</v>
+      </c>
+      <c r="K46" s="3">
         <v>5405700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5326700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4954700</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>449100</v>
+        <v>429900</v>
       </c>
       <c r="E47" s="3">
-        <v>330400</v>
+        <v>430400</v>
       </c>
       <c r="F47" s="3">
-        <v>324300</v>
+        <v>446300</v>
       </c>
       <c r="G47" s="3">
-        <v>310200</v>
+        <v>328400</v>
       </c>
       <c r="H47" s="3">
-        <v>314900</v>
+        <v>322300</v>
       </c>
       <c r="I47" s="3">
+        <v>308200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>313000</v>
+      </c>
+      <c r="K47" s="3">
         <v>282800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>267700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>257700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>7366400</v>
+        <v>7205300</v>
       </c>
       <c r="E48" s="3">
-        <v>7394900</v>
+        <v>7292600</v>
       </c>
       <c r="F48" s="3">
-        <v>7358500</v>
+        <v>7321200</v>
       </c>
       <c r="G48" s="3">
-        <v>7096100</v>
+        <v>7349600</v>
       </c>
       <c r="H48" s="3">
-        <v>7062400</v>
+        <v>7313300</v>
       </c>
       <c r="I48" s="3">
+        <v>7052600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7019100</v>
+      </c>
+      <c r="K48" s="3">
         <v>7063800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7278800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6967200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>445100</v>
+        <v>433600</v>
       </c>
       <c r="E49" s="3">
-        <v>449500</v>
+        <v>437500</v>
       </c>
       <c r="F49" s="3">
-        <v>429500</v>
+        <v>442400</v>
       </c>
       <c r="G49" s="3">
-        <v>434200</v>
+        <v>446700</v>
       </c>
       <c r="H49" s="3">
-        <v>438700</v>
+        <v>426900</v>
       </c>
       <c r="I49" s="3">
+        <v>431500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>436000</v>
+      </c>
+      <c r="K49" s="3">
         <v>439100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>443600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>457200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1820,8 +2082,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1849,37 +2117,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>441100</v>
+        <v>382600</v>
       </c>
       <c r="E52" s="3">
-        <v>444200</v>
+        <v>403000</v>
       </c>
       <c r="F52" s="3">
-        <v>407900</v>
+        <v>438400</v>
       </c>
       <c r="G52" s="3">
-        <v>648700</v>
+        <v>441500</v>
       </c>
       <c r="H52" s="3">
-        <v>661800</v>
+        <v>405400</v>
       </c>
       <c r="I52" s="3">
+        <v>644700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>657700</v>
+      </c>
+      <c r="K52" s="3">
         <v>677900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>698000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1048000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1907,37 +2187,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>13950200</v>
+        <v>13282600</v>
       </c>
       <c r="E54" s="3">
-        <v>14201900</v>
+        <v>13349700</v>
       </c>
       <c r="F54" s="3">
-        <v>14395700</v>
+        <v>13864700</v>
       </c>
       <c r="G54" s="3">
-        <v>14649700</v>
+        <v>14114800</v>
       </c>
       <c r="H54" s="3">
-        <v>14385700</v>
+        <v>14307400</v>
       </c>
       <c r="I54" s="3">
+        <v>14559800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>14297400</v>
+      </c>
+      <c r="K54" s="3">
         <v>13869200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>14014800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13684800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1949,8 +2241,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1962,182 +2256,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>1814200</v>
+        <v>1899900</v>
       </c>
       <c r="E57" s="3">
-        <v>1674300</v>
+        <v>1878300</v>
       </c>
       <c r="F57" s="3">
-        <v>1779000</v>
+        <v>1803100</v>
       </c>
       <c r="G57" s="3">
-        <v>1839300</v>
+        <v>1664000</v>
       </c>
       <c r="H57" s="3">
-        <v>1723100</v>
+        <v>1768100</v>
       </c>
       <c r="I57" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1712600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1758300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1955700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1929500</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>948800</v>
+        <v>976900</v>
       </c>
       <c r="E58" s="3">
-        <v>487000</v>
+        <v>841500</v>
       </c>
       <c r="F58" s="3">
-        <v>377600</v>
+        <v>943000</v>
       </c>
       <c r="G58" s="3">
-        <v>687200</v>
+        <v>484000</v>
       </c>
       <c r="H58" s="3">
-        <v>620600</v>
+        <v>375300</v>
       </c>
       <c r="I58" s="3">
+        <v>683000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>616800</v>
+      </c>
+      <c r="K58" s="3">
         <v>616100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>606600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>852300</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>1796800</v>
+        <v>1302100</v>
       </c>
       <c r="E59" s="3">
-        <v>1256300</v>
+        <v>1328800</v>
       </c>
       <c r="F59" s="3">
-        <v>1340400</v>
+        <v>1785700</v>
       </c>
       <c r="G59" s="3">
-        <v>1407800</v>
+        <v>1248600</v>
       </c>
       <c r="H59" s="3">
-        <v>1512400</v>
+        <v>1332200</v>
       </c>
       <c r="I59" s="3">
+        <v>1399200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1503200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1186200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1261800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1091600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>4559800</v>
+        <v>4178900</v>
       </c>
       <c r="E60" s="3">
-        <v>3417600</v>
+        <v>4048600</v>
       </c>
       <c r="F60" s="3">
-        <v>3497000</v>
+        <v>4531800</v>
       </c>
       <c r="G60" s="3">
-        <v>3934300</v>
+        <v>3396700</v>
       </c>
       <c r="H60" s="3">
-        <v>3856200</v>
+        <v>3475500</v>
       </c>
       <c r="I60" s="3">
+        <v>3910200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3832500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3560500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3824000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3873400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2129700</v>
+        <v>1838000</v>
       </c>
       <c r="E61" s="3">
-        <v>3041000</v>
+        <v>2037300</v>
       </c>
       <c r="F61" s="3">
-        <v>3341000</v>
+        <v>2116700</v>
       </c>
       <c r="G61" s="3">
-        <v>3326100</v>
+        <v>3022300</v>
       </c>
       <c r="H61" s="3">
-        <v>3446100</v>
+        <v>3320500</v>
       </c>
       <c r="I61" s="3">
+        <v>3305700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3425000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3409300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3462800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3300700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>234800</v>
+        <v>223800</v>
       </c>
       <c r="E62" s="3">
-        <v>234200</v>
+        <v>221900</v>
       </c>
       <c r="F62" s="3">
-        <v>212500</v>
+        <v>233300</v>
       </c>
       <c r="G62" s="3">
-        <v>204800</v>
+        <v>232800</v>
       </c>
       <c r="H62" s="3">
-        <v>198000</v>
+        <v>211200</v>
       </c>
       <c r="I62" s="3">
+        <v>203500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>196700</v>
+      </c>
+      <c r="K62" s="3">
         <v>193100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>217800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>239500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2165,8 +2497,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2194,8 +2532,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2223,37 +2567,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>7432100</v>
+        <v>6707900</v>
       </c>
       <c r="E66" s="3">
-        <v>7248900</v>
+        <v>6794300</v>
       </c>
       <c r="F66" s="3">
-        <v>7607800</v>
+        <v>7386500</v>
       </c>
       <c r="G66" s="3">
-        <v>8001300</v>
+        <v>7204500</v>
       </c>
       <c r="H66" s="3">
-        <v>8046100</v>
+        <v>7561200</v>
       </c>
       <c r="I66" s="3">
+        <v>7952200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>7996700</v>
+      </c>
+      <c r="K66" s="3">
         <v>7732200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8104400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8040000</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2265,8 +2621,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2294,8 +2652,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2687,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2352,8 +2722,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2381,37 +2757,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>1379300</v>
+        <v>1518300</v>
       </c>
       <c r="E72" s="3">
-        <v>1811100</v>
+        <v>1510600</v>
       </c>
       <c r="F72" s="3">
-        <v>1666900</v>
+        <v>1370900</v>
       </c>
       <c r="G72" s="3">
-        <v>1533200</v>
+        <v>1800000</v>
       </c>
       <c r="H72" s="3">
-        <v>1244400</v>
+        <v>1656700</v>
       </c>
       <c r="I72" s="3">
+        <v>1523800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1236800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1099700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>790600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>504100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2439,8 +2827,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2468,8 +2862,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2497,37 +2897,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>6518200</v>
+        <v>6574800</v>
       </c>
       <c r="E76" s="3">
-        <v>6953000</v>
+        <v>6555400</v>
       </c>
       <c r="F76" s="3">
-        <v>6787900</v>
+        <v>6478200</v>
       </c>
       <c r="G76" s="3">
-        <v>6648400</v>
+        <v>6910400</v>
       </c>
       <c r="H76" s="3">
-        <v>6339600</v>
+        <v>6746300</v>
       </c>
       <c r="I76" s="3">
+        <v>6607600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6300700</v>
+      </c>
+      <c r="K76" s="3">
         <v>6137000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5910400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5644800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2555,71 +2967,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>40800</v>
+        <v>9100</v>
       </c>
       <c r="E81" s="3">
-        <v>140500</v>
+        <v>140000</v>
       </c>
       <c r="F81" s="3">
-        <v>136800</v>
+        <v>40600</v>
       </c>
       <c r="G81" s="3">
-        <v>288800</v>
+        <v>139700</v>
       </c>
       <c r="H81" s="3">
-        <v>320500</v>
+        <v>135900</v>
       </c>
       <c r="I81" s="3">
+        <v>287000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>318600</v>
+      </c>
+      <c r="K81" s="3">
         <v>309100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>292500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>159700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2631,37 +3061,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>263000</v>
+        <v>290500</v>
       </c>
       <c r="E83" s="3">
-        <v>275900</v>
+        <v>283200</v>
       </c>
       <c r="F83" s="3">
-        <v>283700</v>
+        <v>261300</v>
       </c>
       <c r="G83" s="3">
-        <v>284100</v>
+        <v>274200</v>
       </c>
       <c r="H83" s="3">
-        <v>293700</v>
+        <v>282000</v>
       </c>
       <c r="I83" s="3">
+        <v>282400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>291900</v>
+      </c>
+      <c r="K83" s="3">
         <v>326400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>335200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>314400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2689,8 +3127,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2718,8 +3162,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2747,8 +3197,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2776,8 +3232,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2805,37 +3267,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>311900</v>
+        <v>412900</v>
       </c>
       <c r="E89" s="3">
-        <v>276000</v>
+        <v>305800</v>
       </c>
       <c r="F89" s="3">
-        <v>740200</v>
+        <v>310000</v>
       </c>
       <c r="G89" s="3">
-        <v>644200</v>
+        <v>274300</v>
       </c>
       <c r="H89" s="3">
-        <v>803100</v>
+        <v>735600</v>
       </c>
       <c r="I89" s="3">
+        <v>640200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>798200</v>
+      </c>
+      <c r="K89" s="3">
         <v>563700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>584000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>129200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2847,37 +3321,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-272300</v>
+        <v>-268900</v>
       </c>
       <c r="E91" s="3">
-        <v>-344400</v>
+        <v>-245100</v>
       </c>
       <c r="F91" s="3">
-        <v>-573700</v>
+        <v>-270600</v>
       </c>
       <c r="G91" s="3">
-        <v>-263200</v>
+        <v>-342300</v>
       </c>
       <c r="H91" s="3">
-        <v>-269500</v>
+        <v>-570200</v>
       </c>
       <c r="I91" s="3">
+        <v>-261600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-267800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-324600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-271900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-375900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2905,8 +3387,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2934,37 +3422,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-358200</v>
+        <v>-161300</v>
       </c>
       <c r="E94" s="3">
-        <v>-336700</v>
+        <v>-266100</v>
       </c>
       <c r="F94" s="3">
-        <v>-580200</v>
+        <v>-356000</v>
       </c>
       <c r="G94" s="3">
-        <v>-247300</v>
+        <v>-334600</v>
       </c>
       <c r="H94" s="3">
-        <v>-285300</v>
+        <v>-576700</v>
       </c>
       <c r="I94" s="3">
+        <v>-245800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-283600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-311100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-266700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-249100</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2976,8 +3476,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -3003,10 +3505,16 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-109800</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3034,8 +3542,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3063,8 +3577,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3092,91 +3612,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-463000</v>
+        <v>-71300</v>
       </c>
       <c r="E100" s="3">
-        <v>-194700</v>
+        <v>-631300</v>
       </c>
       <c r="F100" s="3">
-        <v>-228000</v>
+        <v>-460200</v>
       </c>
       <c r="G100" s="3">
-        <v>-242000</v>
+        <v>-193500</v>
       </c>
       <c r="H100" s="3">
-        <v>35100</v>
+        <v>-226600</v>
       </c>
       <c r="I100" s="3">
+        <v>-240500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-45100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>184900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>26700</v>
+        <v>17600</v>
       </c>
       <c r="E101" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>26600</v>
+      </c>
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I101" s="3">
         <v>3500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>11800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-77600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-72100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-29100</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-482600</v>
+        <v>197800</v>
       </c>
       <c r="E102" s="3">
-        <v>-257500</v>
+        <v>-624400</v>
       </c>
       <c r="F102" s="3">
-        <v>-85900</v>
+        <v>-479600</v>
       </c>
       <c r="G102" s="3">
-        <v>158300</v>
+        <v>-256000</v>
       </c>
       <c r="H102" s="3">
-        <v>564700</v>
+        <v>-85400</v>
       </c>
       <c r="I102" s="3">
+        <v>157400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>561200</v>
+      </c>
+      <c r="K102" s="3">
         <v>172600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>35800</v>
       </c>
     </row>
